--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2145.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2145.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.798805652075667</v>
+        <v>0.6815946698188782</v>
       </c>
       <c r="B1">
-        <v>3.941223620755107</v>
+        <v>1.525940299034119</v>
       </c>
       <c r="C1">
-        <v>2.493590581529286</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.8643501316287177</v>
+        <v>2.020338296890259</v>
       </c>
       <c r="E1">
-        <v>0.5744894457060672</v>
+        <v>1.268260478973389</v>
       </c>
     </row>
   </sheetData>
